--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Пароль</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>E-mail</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Пароль</t>
         </is>
       </c>
     </row>
@@ -466,27 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikita</t>
+          <t>dsa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Petrov</t>
+          <t>sda</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Devidovich</t>
+          <t>asdas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>demid@gmial.com</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>nekita_1992</t>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>aaa@mail.ru</t>
         </is>
       </c>
     </row>
@@ -496,27 +506,366 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikita</t>
+          <t>das</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Petrov</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Devidovich</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>demid@gmial.com</t>
+          <t>asda</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>nekita_1992</t>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>asda</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>dimas</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>dimas</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>dimas</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>dimas</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>dimas</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>dimas</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dimass</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>dimass</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>dimass</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>dimas</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>dimasik</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dasd</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dimon</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>dimon</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>dimon</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>dimon</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>dimon</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>dimon</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>alex</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dsa</t>
+          <t>dimas1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sda</t>
+          <t>dimas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>asdas</t>
+          <t>dimas</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>dimas12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>dimas</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>aaa@mail.ru</t>
+          <t>dimas33</t>
         </is>
       </c>
     </row>
@@ -506,366 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>das</t>
+          <t>dima</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>dima</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>dima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>asda</t>
+          <t>dima</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>asd</t>
+          <t>dima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>das</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>das</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>das</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>das</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>das</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>asda</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>dimas</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>dimas</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>dimas</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>dimas</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>dimas</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>dimas</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>dimass</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>dimass</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ds</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>dimass</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>dimas</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>dimasik</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>dasd</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>sad</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dimon</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>dimon</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>dimon</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>dimon</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>dimon</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>dimon</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>alex</t>
+          <t>dima</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,111 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lexaaa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>lexaaa</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>lexaaa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>lexaaa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lexaaa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>lexaaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lexaaa1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>lexaaa</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>lexaaa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>lexaaa2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>lexaaa</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>lexaaa3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Алекс</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Хайв</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Евпатионович</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Alexev</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alexev32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alexev@mail.ru</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dimas1</t>
+          <t>Егор</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dimas</t>
+          <t>Губин</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>dimas</t>
+          <t>Вячеславович</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>dimas12</t>
+          <t>egor</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>dimas</t>
+          <t>Егор</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>dimas33</t>
+          <t>egor</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dima</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dima</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dima</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>dima</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>dima</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>dima</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -541,102 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lexaaa</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lexaaa</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>lexaaa</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>lexaaa</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>lexaaa</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>lexaaa</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>lexaaa1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>lexaaa</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>lexaaa</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>lexaaa2</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>lexaaa</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>lexaaa3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Алекс</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Хайв</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Евпатионович</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Alexev</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alexev32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Alexev@mail.ru</t>
+          <t>4</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Егор</t>
+          <t>егор</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Губин</t>
+          <t>губин</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Вячеславович</t>
+          <t>выфывфы</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>egor</t>
+          <t>выфв</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Егор</t>
+          <t>выфвыфв</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>egor</t>
+          <t>вфывф</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>ddsa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>dsa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>fdss</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>fdsfs</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>fdsfds</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>fdsfsf</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Артём</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Боков</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>выфв</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>выфввыфвф</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>ыфввф</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>выфвф</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>егор</t>
+          <t>егорdsa2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>губин</t>
+          <t>губин2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>выфывфы</t>
+          <t>выфывфы2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>выфв</t>
+          <t>выфв2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ddsa</t>
+          <t>егор1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>dsa</t>
+          <t>губин1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>fdss</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fdsfs</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>fdsfds</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>fdsfsf</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,137 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Артём</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Боков</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>выфв</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>выфввыфвф</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ыфввф</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>выфвф</t>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>36</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -471,22 +471,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>егорdsa2</t>
+          <t>егорdsa2d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>губин2</t>
+          <t>губин2d</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>выфывфы2</t>
+          <t>выфывфы2d</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>выфв2</t>
+          <t>выфв2d</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>егор1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>губин1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>егорdsa2d</t>
+          <t>егорdsa2d1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>губин2d</t>
+          <t>губин2d1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>выфывфы2d</t>
+          <t>выфывфы2d1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>выфв2d</t>
+          <t>выфв2d1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>выфвыфв</t>
+          <t>выфвыфв1</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>вфывф</t>
+          <t>вфывф1</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -611,65 +611,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>губин2d1</t>
+          <t>губин2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -611,32 +611,102 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Евстратов</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Табулович</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Evgebn20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Evgebn20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Evgebn@mail.ru</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3222</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>LEXA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Евстратов</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Табулович</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Evgebn@mail.ru</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,102 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Евстратов</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Табулович</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Evgebn@mail.ru</t>
+          <t>Rey</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rey1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Rey</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rey1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Rey1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rey1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Rey1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>asdas</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>asdsa</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>asdasdsad</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>LEXA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Евстратов</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Табулович</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Evgebn@mail.ru</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LEXA</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Rey</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Евстратов</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Табулович</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Evgebn@mail.ru</t>
+          <t>stepik</t>
         </is>
       </c>
     </row>
@@ -681,102 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Rey</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Rey1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Rey</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Rey1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Rey1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Rey1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Rey1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>dasdasd</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>asdas</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>asdsa</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>asdasdsad</t>
+          <t>alex</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>егорdsa2d1</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>губин2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>выфывфы2d1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>выфв2d1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>выфвыфв1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>вфывф1</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>LEXA2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LEXA</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Евстратов</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Табулович</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Evgebn@mail.ru</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Евстратов</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Табулович</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Evgebn@mail.ru</t>
+          <t>Rey</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>LEXA2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LEXA2</t>
+          <t>Евгений1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Евстратов</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Табулович</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Evgebn@mail.ru</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Евстратов</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Табулович</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Evgebn@mail.ru</t>
+          <t>Rey</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -705,41 +705,6 @@
         </is>
       </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LEXA2</t>
+          <t>Евгений1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Евстратов</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>Табулович</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Evgebn20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Evgebn@mail.ru</t>
         </is>
       </c>
     </row>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Евгений1</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Евстратов</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Табулович</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
+          <t>Rey</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Evgebn@mail.ru</t>
+          <t>Rey</t>
         </is>
       </c>
     </row>
@@ -541,32 +541,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>stepik</t>
         </is>
       </c>
     </row>
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>alex</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -670,41 +670,6 @@
         </is>
       </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
         <is>
           <t>1</t>
         </is>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,32 +506,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>dsadasdsa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>Reydasdasdasa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>dasadds</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>dasdas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>Reydasdadas</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rey</t>
+          <t>dsadasd</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,32 +646,137 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fdsfsdf</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>sdfsdfsdf</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sdfdsf</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>sdfsdfsfd</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>sfs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>dsfsfsd</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>егор</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>егор</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>егор</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>егор</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>егор</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,41 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>sfpcht@mail.ru</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,207 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Егор</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Губин</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Вячеславович</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>fadeyjo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>123</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>fdsfsdf</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>sdfsdfsdf</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>sdfdsf</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>sdfsdfsfd</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>sfs</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>dsfsfsd</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>егор</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>егор</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>егор</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>егор</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Егор</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>егор</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>sfpcht@mail.ru</t>
+          <t>123</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -1,37 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79109\Desktop\lernin\op_2\project\TravelMaster\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Евгений1</t>
+  </si>
+  <si>
+    <t>Евстратов</t>
+  </si>
+  <si>
+    <t>Табулович</t>
+  </si>
+  <si>
+    <t>Evgebn20</t>
+  </si>
+  <si>
+    <t>Evgebn@mail.ru</t>
+  </si>
+  <si>
+    <t>dsadasdsa</t>
+  </si>
+  <si>
+    <t>Reydasdasdasa</t>
+  </si>
+  <si>
+    <t>dasadds</t>
+  </si>
+  <si>
+    <t>dasdas</t>
+  </si>
+  <si>
+    <t>Reydasdadas</t>
+  </si>
+  <si>
+    <t>dsadasd</t>
+  </si>
+  <si>
+    <t>stepik</t>
+  </si>
+  <si>
+    <t>alex</t>
+  </si>
+  <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Губин</t>
+  </si>
+  <si>
+    <t>Вячеславович</t>
+  </si>
+  <si>
+    <t>fadeyjo</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +128,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,225 +452,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Имя</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Фамилия</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Отчество</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Пароль</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>E-mail</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Евгений1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Евстратов</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Табулович</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Evgebn20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Evgebn20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Evgebn@mail.ru</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>dsadasdsa</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Reydasdasdasa</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>dasadds</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>dasdas</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Reydasdadas</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>dsadasd</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>stepik</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>stepik</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>stepik</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>stepik</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>stepik</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>stepik</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>alex</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Егор</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Губин</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Вячеславович</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>fadeyjo</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -1,119 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79109\Desktop\lernin\op_2\project\TravelMaster\backend\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Отчество</t>
-  </si>
-  <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>Пароль</t>
-  </si>
-  <si>
-    <t>E-mail</t>
-  </si>
-  <si>
-    <t>Евгений1</t>
-  </si>
-  <si>
-    <t>Евстратов</t>
-  </si>
-  <si>
-    <t>Табулович</t>
-  </si>
-  <si>
-    <t>Evgebn20</t>
-  </si>
-  <si>
-    <t>Evgebn@mail.ru</t>
-  </si>
-  <si>
-    <t>dsadasdsa</t>
-  </si>
-  <si>
-    <t>Reydasdasdasa</t>
-  </si>
-  <si>
-    <t>dasadds</t>
-  </si>
-  <si>
-    <t>dasdas</t>
-  </si>
-  <si>
-    <t>Reydasdadas</t>
-  </si>
-  <si>
-    <t>dsadasd</t>
-  </si>
-  <si>
-    <t>stepik</t>
-  </si>
-  <si>
-    <t>alex</t>
-  </si>
-  <si>
-    <t>Егор</t>
-  </si>
-  <si>
-    <t>Губин</t>
-  </si>
-  <si>
-    <t>Вячеславович</t>
-  </si>
-  <si>
-    <t>fadeyjo</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -452,200 +420,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Имя</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Фамилия</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Отчество</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>login</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Пароль</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>E-mail</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Евгений1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Евстратов</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Табулович</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Evgebn20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Evgebn20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Evgebn@mail.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>stepik</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>stepik</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>stepik</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>stepik</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>stepik</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>stepik</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>alex</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Егор</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Губин</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Вячеславович</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>fadeyjo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>dsaasdasdsad</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>asdasdas</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>dasdasd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>asdasdasdad</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>asdasd</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>sadasdsa</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,41 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Евгений1</t>
+          <t>Егор</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Евстратов</t>
+          <t>Губин</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Табулович</t>
+          <t>Вячеславович</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Evgebn20</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Evgebn20</t>
-        </is>
+          <t>fadey</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>123</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Evgebn@mail.ru</t>
+          <t>komrad.gubi2017@yandex.ru</t>
         </is>
       </c>
     </row>
@@ -506,32 +504,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>Илья</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>Сибелев</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>stepik</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>stepik</t>
-        </is>
+          <t>ghost</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>123</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>stepik</t>
+          <t>sibelev@yandex.ru</t>
         </is>
       </c>
     </row>
@@ -541,137 +537,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>Кира</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>Амеличева</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>kaa</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>alex</t>
+          <t>111</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>alex</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Егор</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Губин</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Вячеславович</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>fadeyjo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dsaasdasdsad</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>asdasdas</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>dasdasd</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>asdasdasdad</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>asdasd</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>sadasdsa</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>kaa@mail.ru</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,14 +555,47 @@
           <t>kaa</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
+      <c r="F4" t="n">
+        <v>111</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>kaa@mail.ru</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsadasd</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>asdsadas</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dasdas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>chyrka</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>dsadas</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>dasdas</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,30 +471,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Егор</t>
+          <t>Кира</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Губин</t>
+          <t>Амеличева</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Вячеславович</t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fadey</t>
+          <t>kaa</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>komrad.gubi2017@yandex.ru</t>
+          <t>kaa@mail.ru</t>
         </is>
       </c>
     </row>
@@ -504,30 +504,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Илья</t>
+          <t>fdsfsd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Сибелев</t>
+          <t>sfds</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>fsd</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ghost</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>123</v>
+          <t>fsdsf</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ssdf</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sibelev@yandex.ru</t>
+          <t>sdfsdf</t>
         </is>
       </c>
     </row>
@@ -537,65 +539,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Кира</t>
+          <t>1312e</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Амеличева</t>
+          <t>dassadasd</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Александровна</t>
+          <t>321</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>kaa</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>111</v>
+          <t>45345</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>fdsds</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>kaa@mail.ru</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dsadasd</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>asdsadas</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>dasdas</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>chyrka</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>dsadas</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>dasdas</t>
+          <t>fdsfsdfs</t>
         </is>
       </c>
     </row>

--- a/backend/data/users.xlsx
+++ b/backend/data/users.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,6 +568,41 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
